--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Efna3-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,13 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Efna3</t>
   </si>
   <si>
     <t>Ephb1</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H2">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.471191666666667</v>
+        <v>1.475208</v>
       </c>
       <c r="N2">
-        <v>4.413575</v>
+        <v>4.425624</v>
       </c>
       <c r="O2">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987012</v>
       </c>
       <c r="P2">
-        <v>0.6447353255635294</v>
+        <v>0.8210007041987013</v>
       </c>
       <c r="Q2">
-        <v>0.1268873388666667</v>
+        <v>0.068411295792</v>
       </c>
       <c r="R2">
-        <v>1.1419860498</v>
+        <v>0.6157016621279999</v>
       </c>
       <c r="S2">
-        <v>0.6447353255635294</v>
+        <v>0.5412747665827803</v>
       </c>
       <c r="T2">
-        <v>0.6447353255635294</v>
+        <v>0.5412747665827803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -593,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.08624800000000001</v>
+        <v>0.046374</v>
       </c>
       <c r="H3">
-        <v>0.258744</v>
+        <v>0.139122</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6592866045237633</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6592866045237632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -611,28 +611,152 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8106620000000001</v>
+        <v>0.3216333333333333</v>
       </c>
       <c r="N3">
-        <v>2.431986</v>
+        <v>0.9649</v>
       </c>
       <c r="O3">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="P3">
-        <v>0.3552646744364706</v>
+        <v>0.1789992958012987</v>
       </c>
       <c r="Q3">
-        <v>0.06991797617600001</v>
+        <v>0.0149154242</v>
       </c>
       <c r="R3">
-        <v>0.6292617855840001</v>
+        <v>0.1342388178</v>
       </c>
       <c r="S3">
-        <v>0.3552646744364706</v>
+        <v>0.1180118379409829</v>
       </c>
       <c r="T3">
-        <v>0.3552646744364706</v>
+        <v>0.1180118379409829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.02396566666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.071897</v>
+      </c>
+      <c r="I4">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="J4">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1.475208</v>
+      </c>
+      <c r="N4">
+        <v>4.425624</v>
+      </c>
+      <c r="O4">
+        <v>0.8210007041987012</v>
+      </c>
+      <c r="P4">
+        <v>0.8210007041987013</v>
+      </c>
+      <c r="Q4">
+        <v>0.035354343192</v>
+      </c>
+      <c r="R4">
+        <v>0.318189088728</v>
+      </c>
+      <c r="S4">
+        <v>0.279725937615921</v>
+      </c>
+      <c r="T4">
+        <v>0.279725937615921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.02396566666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.071897</v>
+      </c>
+      <c r="I5">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="J5">
+        <v>0.3407133954762367</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3216333333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.9649</v>
+      </c>
+      <c r="O5">
+        <v>0.1789992958012987</v>
+      </c>
+      <c r="P5">
+        <v>0.1789992958012987</v>
+      </c>
+      <c r="Q5">
+        <v>0.007708157255555555</v>
+      </c>
+      <c r="R5">
+        <v>0.0693734153</v>
+      </c>
+      <c r="S5">
+        <v>0.06098745786031576</v>
+      </c>
+      <c r="T5">
+        <v>0.06098745786031578</v>
       </c>
     </row>
   </sheetData>
